--- a/data/output/Pedido_Semana_06_13022026_interior.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_interior.xlsx
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>26.25</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>61.1</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>21.38</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>16.25</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>7.4</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>12.82</v>
@@ -1942,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>125.1</v>
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>158.6</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>1106070002</t>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>9.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>5.97</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>5.1</v>
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>1301010003</t>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>97.75</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>58.65</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3171,10 +3171,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>32.1</v>
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>1701010001</t>
@@ -3283,303 +3283,303 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">5A       </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 15%</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+        </is>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>1701010001</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>BONSAI</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6A       </t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 50%</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" hidden="1">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>1701010001</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>BONSAI</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8A       </t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>48.92</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 50%</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+        </is>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>1701010001</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>BONSAI</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">7ASUP    </t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="n">
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="n">
         <v>49.42</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H38" s="4" t="n">
         <v>19.77</v>
       </c>
-      <c r="I35" s="5" t="inlineStr">
+      <c r="I38" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 50%</t>
         </is>
       </c>
-      <c r="K35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6" t="n">
-        <v>98.84999999999999</v>
-      </c>
-      <c r="N35" s="4" t="n">
-        <v>59.31</v>
-      </c>
-      <c r="O35" s="7" t="inlineStr">
+      <c r="K38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
         </is>
       </c>
-      <c r="P35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>1701010001</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>BONSAI</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8A       </t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="H36" s="4" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="I36" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 50%</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6" t="n">
-        <v>97.84999999999999</v>
-      </c>
-      <c r="N36" s="4" t="n">
-        <v>58.71</v>
-      </c>
-      <c r="O36" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
-        </is>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>1701010001</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>BONSAI</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5A       </t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="H37" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="I37" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 15%</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6" t="n">
-        <v>90.62</v>
-      </c>
-      <c r="N37" s="4" t="n">
-        <v>54.37</v>
-      </c>
-      <c r="O37" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
-        </is>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T37" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U37" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>1701010001</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>BONSAI</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6A       </t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="n">
-        <v>29.62</v>
-      </c>
-      <c r="H38" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 50%</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="N38" s="4" t="n">
-        <v>35.55</v>
-      </c>
-      <c r="O38" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
-        </is>
-      </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3724,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>52.4</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>11.8</v>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>42.9</v>
@@ -4242,7 +4242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>1104060001</t>
@@ -4291,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="n">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>14.22</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="inlineStr">
         <is>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="P47" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
@@ -4320,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="U47" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" hidden="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>1105050001</t>
@@ -4375,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="6" t="n">
-        <v>72.5</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="inlineStr">
         <is>
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="P48" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4890,7 +4890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
           <t>1108140019</t>
@@ -4942,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="6" t="n">
-        <v>27.35</v>
+        <v>0</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="P55" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" s="2" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5020,13 +5020,13 @@
         <v>8</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M56" s="6" t="n">
-        <v>74.8</v>
+        <v>30.8</v>
       </c>
       <c r="N56" s="4" t="n">
-        <v>44.88</v>
+        <v>18.48</v>
       </c>
       <c r="O56" s="7" t="inlineStr">
         <is>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="P56" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
@@ -5049,10 +5049,10 @@
         <v>1</v>
       </c>
       <c r="U56" s="8" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" hidden="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
           <t>1501060001</t>
@@ -5101,13 +5101,13 @@
         <v>13</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="6" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>42.24</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="inlineStr">
         <is>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="P57" s="3" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>8</v>
       </c>
       <c r="U57" s="8" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="6" t="n">
         <v>9.1</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="6" t="n">
         <v>10.6</v>
@@ -5425,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="6" t="n">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="6" t="n">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>2382.54€</t>
+          <t>1690.32€</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="C77" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
